--- a/biology/Botanique/Azorina_vidalii/Azorina_vidalii.xlsx
+++ b/biology/Botanique/Azorina_vidalii/Azorina_vidalii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Azorina vidalii est une espèce d'arbuste persistant originaire des Açores de la famille des Campanulacées, seule membre du genre Azorina.
 Il produit, en fin d'été, des grappes de fleurs en clochettes.
